--- a/data/teacher/Cleison.xlsx
+++ b/data/teacher/Cleison.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
     </row>
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ELM-1NA-Tecnologia Mecânica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEC-1NA-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ELM-1NA-Tecnologia Mecânica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/teacher/Cleison.xlsx
+++ b/data/teacher/Cleison.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Cleison.xlsx
+++ b/data/teacher/Cleison.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">

--- a/data/teacher/Cleison.xlsx
+++ b/data/teacher/Cleison.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Cleison.xlsx
+++ b/data/teacher/Cleison.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-3B-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>MEC-3B-Elemaq.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Elemaq.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
